--- a/data/output/FV2410_FV2404/UTILMD/55112.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55112.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10612" uniqueCount="699">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10633" uniqueCount="699">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2270,6 +2270,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U452" totalsRowShown="0">
+  <autoFilter ref="A1:U452"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2559,7 +2589,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U452"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24850,5 +24883,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55112.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55112.xlsx
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6564,7 +6564,7 @@
         <v>645</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6726,7 +6726,7 @@
         <v>646</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -6930,7 +6930,7 @@
         <v>648</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7134,7 +7134,7 @@
         <v>650</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7338,7 +7338,7 @@
         <v>652</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7542,7 +7542,7 @@
         <v>654</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7746,7 +7746,7 @@
         <v>655</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8150,7 +8150,7 @@
         <v>657</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8362,7 +8362,7 @@
         <v>659</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8636,7 +8636,7 @@
         <v>660</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -8856,7 +8856,7 @@
         <v>659</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -9072,7 +9072,7 @@
         <v>661</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9220,7 +9220,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -9846,7 +9846,7 @@
         <v>662</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -10408,7 +10408,7 @@
         <v>659</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -11148,7 +11148,7 @@
         <v>659</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11456,7 +11456,7 @@
         <v>659</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -11872,7 +11872,7 @@
         <v>664</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -12442,7 +12442,7 @@
         <v>666</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -12590,7 +12590,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -13460,7 +13460,7 @@
         <v>668</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -13676,7 +13676,7 @@
         <v>669</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -13980,7 +13980,7 @@
         <v>669</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -14292,7 +14292,7 @@
         <v>670</v>
       </c>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -15060,7 +15060,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -15220,7 +15220,7 @@
         <v>671</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -15436,7 +15436,7 @@
         <v>672</v>
       </c>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -15648,7 +15648,7 @@
         <v>673</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -15798,7 +15798,7 @@
         <v>674</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -16018,7 +16018,7 @@
         <v>675</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -16320,7 +16320,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -17062,7 +17062,7 @@
         <v>675</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -17210,7 +17210,7 @@
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -17620,7 +17620,7 @@
         <v>678</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -18024,7 +18024,7 @@
         <v>680</v>
       </c>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -18172,7 +18172,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -18632,7 +18632,7 @@
         <v>681</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -18780,7 +18780,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -18944,7 +18944,7 @@
         <v>682</v>
       </c>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -19110,7 +19110,7 @@
         <v>683</v>
       </c>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -19276,7 +19276,7 @@
         <v>684</v>
       </c>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19442,7 +19442,7 @@
         <v>685</v>
       </c>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -19604,7 +19604,7 @@
         <v>686</v>
       </c>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -19862,7 +19862,7 @@
         <v>687</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -20120,7 +20120,7 @@
         <v>688</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -20376,7 +20376,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -20632,7 +20632,7 @@
         <v>689</v>
       </c>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -20902,7 +20902,7 @@
         <v>671</v>
       </c>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -21118,7 +21118,7 @@
         <v>672</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21334,7 +21334,7 @@
         <v>690</v>
       </c>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -21658,7 +21658,7 @@
         <v>688</v>
       </c>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21928,7 +21928,7 @@
         <v>691</v>
       </c>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -22090,7 +22090,7 @@
         <v>692</v>
       </c>
       <c r="L348" s="4"/>
-      <c r="M348" s="2" t="s">
+      <c r="M348" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N348" s="2" t="s">
@@ -22252,7 +22252,7 @@
         <v>693</v>
       </c>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -22518,7 +22518,7 @@
         <v>694</v>
       </c>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22822,7 +22822,7 @@
         <v>695</v>
       </c>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -22970,7 +22970,7 @@
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="K368" s="2"/>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -23274,7 +23274,7 @@
       </c>
       <c r="K371" s="2"/>
       <c r="L371" s="4"/>
-      <c r="M371" s="2" t="s">
+      <c r="M371" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N371" s="2" t="s">
@@ -23596,7 +23596,7 @@
         <v>696</v>
       </c>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -23744,7 +23744,7 @@
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -23908,7 +23908,7 @@
         <v>659</v>
       </c>
       <c r="L383" s="4"/>
-      <c r="M383" s="2" t="s">
+      <c r="M383" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N383" s="2" t="s">
@@ -24066,7 +24066,7 @@
         <v>659</v>
       </c>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -24214,7 +24214,7 @@
       </c>
       <c r="K389" s="2"/>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -24650,7 +24650,7 @@
       </c>
       <c r="K397" s="2"/>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -24806,7 +24806,7 @@
         <v>697</v>
       </c>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -25280,7 +25280,7 @@
         <v>697</v>
       </c>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="K419" s="2"/>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -25974,7 +25974,7 @@
         <v>697</v>
       </c>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -26506,7 +26506,7 @@
         <v>697</v>
       </c>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -27038,7 +27038,7 @@
         <v>657</v>
       </c>
       <c r="L442" s="4"/>
-      <c r="M442" s="2" t="s">
+      <c r="M442" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N442" s="2" t="s">
@@ -27458,7 +27458,7 @@
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N450" s="2"/>
